--- a/HRMS/SchemeMaster.xlsx
+++ b/HRMS/SchemeMaster.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="116">
   <si>
     <t>Table Name -  SchemeMaster</t>
   </si>
@@ -230,13 +230,145 @@
   </si>
   <si>
     <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>Take OfficeAddress as String.</t>
+  </si>
+  <si>
+    <t>Take AcademicYearId as Int.</t>
+  </si>
+  <si>
+    <t>Take DepartmentId as Int.</t>
+  </si>
+  <si>
+    <t>Take StudentCatagoryId as Int.</t>
+  </si>
+  <si>
+    <t>Take SchemeAppliedId as Int.</t>
+  </si>
+  <si>
+    <t>Take ApplicableClassId as Int.</t>
+  </si>
+  <si>
+    <t>Take GovermentSchoolId as Int.</t>
+  </si>
+  <si>
+    <t>Take PWDId as Int.</t>
+  </si>
+  <si>
+    <t>Take PWDPercentage as Int.</t>
+  </si>
+  <si>
+    <t>Take SiblingsId as Int.</t>
+  </si>
+  <si>
+    <t>Take EducationGAPId as Int.</t>
+  </si>
+  <si>
+    <t>Take MinorityId as Int.</t>
+  </si>
+  <si>
+    <t>Take LastYearPassing as Int.</t>
+  </si>
+  <si>
+    <t>Take AcademicYear as String.</t>
+  </si>
+  <si>
+    <t>Take Department as String.</t>
+  </si>
+  <si>
+    <t>Take SchemeTypeInEng as String.</t>
+  </si>
+  <si>
+    <t>Take SchemeTypeInHin as String.</t>
+  </si>
+  <si>
+    <t>Take StudentCatagory as String.</t>
+  </si>
+  <si>
+    <t>Take SchemeApplied as String.</t>
+  </si>
+  <si>
+    <t>Take SchemeAppliedBoth as String.</t>
+  </si>
+  <si>
+    <t>Take SchemeAmountforBoy  Value as Decimal</t>
+  </si>
+  <si>
+    <t>Take SchemeAmountforGirl  Value as Decimal</t>
+  </si>
+  <si>
+    <t>Take ApplicableClass as String.</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t>Take BPLId as String.</t>
+  </si>
+  <si>
+    <t>Take PWD as String.</t>
+  </si>
+  <si>
+    <t>Take Siblings as String.</t>
+  </si>
+  <si>
+    <t>Take EducationGAP as String.</t>
+  </si>
+  <si>
+    <t>Take FatherOccupation as String.</t>
+  </si>
+  <si>
+    <t>Take VimuktStatus as String.</t>
+  </si>
+  <si>
+    <t>Take FamilyIncome  Value as Decimal</t>
+  </si>
+  <si>
+    <t>Take HostellerAmountForBoy  Value as Decimal</t>
+  </si>
+  <si>
+    <t>Take HostellerAmountForGirl  Value as Decimal</t>
+  </si>
+  <si>
+    <t>Take Minority as String.</t>
+  </si>
+  <si>
+    <t>Take Remark as String.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>Take HostellerStatusId as String.</t>
+  </si>
+  <si>
+    <t>Take DayScholar as String.</t>
+  </si>
+  <si>
+    <t>Take DayScholarId as Int.</t>
+  </si>
+  <si>
+    <t>Take HostellerStatus as String.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +380,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -287,14 +425,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,6 +436,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,7 +755,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,856 +764,956 @@
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7"/>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7"/>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="D38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="D39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="D41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="8" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="D42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="D43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="D44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="D45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>43</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="D48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="D49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="A51" s="4">
         <v>47</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="D51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="A52" s="4">
         <v>48</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="D52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="4">
         <v>49</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="D53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="8" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HRMS/SchemeMaster.xlsx
+++ b/HRMS/SchemeMaster.xlsx
@@ -19,9 +19,6 @@
     <t>Table Name -  SchemeMaster</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t>Take HostellerStatus as String.</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में योजना का विवरण है।</t>
   </si>
 </sst>
 </file>
@@ -436,17 +436,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,7 +755,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,51 +768,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -820,19 +820,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>72</v>
+      <c r="F5" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -840,16 +840,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>74</v>
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -857,16 +857,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -874,17 +874,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
-        <v>75</v>
+      <c r="F8" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -892,17 +892,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
-        <v>87</v>
+      <c r="F9" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -910,17 +910,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
-        <v>88</v>
+      <c r="F10" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -928,17 +928,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
-        <v>89</v>
+      <c r="F11" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,17 +946,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
-        <v>76</v>
+      <c r="F12" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -964,17 +964,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
-        <v>90</v>
+      <c r="F13" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -982,17 +982,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
-        <v>77</v>
+      <c r="F14" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1000,17 +1000,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
-        <v>91</v>
+      <c r="F15" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1018,17 +1018,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
-        <v>92</v>
+      <c r="F16" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1036,17 +1036,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
-        <v>93</v>
+      <c r="F17" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,17 +1054,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
-        <v>94</v>
+      <c r="F18" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,17 +1072,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="9" t="s">
-        <v>96</v>
+      <c r="F19" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,17 +1090,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="9" t="s">
-        <v>96</v>
+      <c r="F20" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,17 +1108,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="8" t="s">
-        <v>78</v>
+      <c r="F21" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1126,17 +1126,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="8" t="s">
-        <v>95</v>
+      <c r="F22" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1144,17 +1144,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="8" t="s">
-        <v>79</v>
+      <c r="F23" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1162,17 +1162,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="8" t="s">
-        <v>73</v>
+      <c r="F24" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1180,17 +1180,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="8" t="s">
-        <v>78</v>
+      <c r="F25" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1198,17 +1198,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="8" t="s">
-        <v>97</v>
+      <c r="F26" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1216,17 +1216,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="8" t="s">
-        <v>80</v>
+      <c r="F27" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,17 +1234,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
-        <v>98</v>
+      <c r="F28" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,17 +1252,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="8" t="s">
-        <v>81</v>
+      <c r="F29" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,17 +1270,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="8" t="s">
-        <v>82</v>
+      <c r="F30" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1288,17 +1288,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="8" t="s">
-        <v>99</v>
+      <c r="F31" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,17 +1306,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="8" t="s">
-        <v>83</v>
+      <c r="F32" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1324,17 +1324,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="8" t="s">
-        <v>100</v>
+      <c r="F33" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1342,17 +1342,17 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="8" t="s">
-        <v>101</v>
+      <c r="F34" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,17 +1360,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="8" t="s">
-        <v>102</v>
+      <c r="F35" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1378,17 +1378,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="8" t="s">
-        <v>103</v>
+      <c r="F36" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1396,17 +1396,17 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="8" t="s">
-        <v>84</v>
+      <c r="F37" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1414,17 +1414,17 @@
         <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="8" t="s">
-        <v>106</v>
+      <c r="F38" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,17 +1432,17 @@
         <v>35</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="8" t="s">
-        <v>85</v>
+      <c r="F39" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1450,17 +1450,17 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="8" t="s">
-        <v>107</v>
+      <c r="F40" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1468,17 +1468,17 @@
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D41" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="8" t="s">
-        <v>108</v>
+      <c r="F41" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,17 +1486,17 @@
         <v>38</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="8" t="s">
-        <v>109</v>
+      <c r="F42" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1504,17 +1504,17 @@
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="8" t="s">
-        <v>110</v>
+      <c r="F43" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1522,17 +1522,17 @@
         <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="8" t="s">
-        <v>111</v>
+      <c r="F44" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1540,17 +1540,17 @@
         <v>41</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="9" t="s">
-        <v>96</v>
+      <c r="F45" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1558,17 +1558,17 @@
         <v>42</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="9" t="s">
-        <v>96</v>
+      <c r="F46" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1576,17 +1576,17 @@
         <v>43</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="8" t="s">
-        <v>109</v>
+      <c r="F47" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1594,17 +1594,17 @@
         <v>44</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="8" t="s">
-        <v>110</v>
+      <c r="F48" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,17 +1612,17 @@
         <v>45</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="8" t="s">
-        <v>113</v>
+      <c r="F49" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1630,17 +1630,17 @@
         <v>46</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="8" t="s">
-        <v>114</v>
+      <c r="F50" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1648,17 +1648,17 @@
         <v>47</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="8" t="s">
-        <v>104</v>
+      <c r="F51" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1666,17 +1666,17 @@
         <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="8" t="s">
-        <v>105</v>
+      <c r="F52" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,17 +1684,17 @@
         <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="8" t="s">
-        <v>115</v>
+      <c r="F53" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1702,17 +1702,17 @@
         <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="8" t="s">
-        <v>112</v>
+      <c r="F54" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
